--- a/database/data/reviews.xlsx
+++ b/database/data/reviews.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ReviewTravel\Group6_SE347.O11\database\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555D598E-3061-4AC4-B037-F451CE4C4356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1416904-13E9-4AE8-96CB-E448E6CE9354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>Phan Rang</t>
+  </si>
+  <si>
+    <t>22521484@gm.uit.edu.vn</t>
+  </si>
+  <si>
+    <t>22521718@gm.uit.edu.vn</t>
   </si>
 </sst>
 </file>
@@ -533,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,7 +638,7 @@
         <v>42</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -690,7 +696,7 @@
         <v>48</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -719,7 +725,7 @@
         <v>46</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -777,7 +783,7 @@
         <v>49</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -785,6 +791,9 @@
     <hyperlink ref="I2" r:id="rId1" xr:uid="{B420A66A-505A-4E2C-A4B2-EB02B4914F73}"/>
     <hyperlink ref="I3" r:id="rId2" xr:uid="{C3AB77F0-0ADC-4123-9985-B24A2CA60518}"/>
     <hyperlink ref="I4:I8" r:id="rId3" display="17520926@gm.uit.edu.vn" xr:uid="{5B8EFA68-7EF5-4ADB-9D73-1144791C4C4C}"/>
+    <hyperlink ref="I6" r:id="rId4" xr:uid="{D49DB212-311A-45B6-BBE7-7B53679D9CF0}"/>
+    <hyperlink ref="I5" r:id="rId5" xr:uid="{AAA77E7E-D75C-482E-8784-FDC0EE470A0C}"/>
+    <hyperlink ref="I8" r:id="rId6" xr:uid="{F08E9548-ADD9-48E0-A410-5C690DF1DBCF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/data/reviews.xlsx
+++ b/database/data/reviews.xlsx
@@ -1,39 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ReviewTravel\Group6_SE347.O11\database\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1416904-13E9-4AE8-96CB-E448E6CE9354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62243462-54C0-43B9-96A2-B03D3299CB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Bài viết" sheetId="1" r:id="rId1"/>
+    <sheet name="Hình" sheetId="2" r:id="rId2"/>
+    <sheet name="Nơi review" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" forceFullCalc="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="96">
   <si>
     <t>ID</t>
   </si>
@@ -53,12 +42,6 @@
     <t>Danh mục</t>
   </si>
   <si>
-    <t>Vùng</t>
-  </si>
-  <si>
-    <t>Địa điểm</t>
-  </si>
-  <si>
     <t>Tác giả</t>
   </si>
   <si>
@@ -77,135 +60,286 @@
     <t>Homestay</t>
   </si>
   <si>
-    <t>Miền Nam</t>
+    <t>superadmin@gmail.com</t>
+  </si>
+  <si>
+    <t>Top 4 Homestay Nghệ An Gửi Thương Gửi Nhớ Cho Bất Kỳ Ai Từng Ghé Qua</t>
+  </si>
+  <si>
+    <t>Người miền Trung chân tình, dễ mến lại nồng hậu, hiếu khách. Bất kỳ ai ghé qua mảnh đất Nghệ An nói riêng hay miền Trung nói chung đều lưu luyến và nhớ mãi không quên. Vậy đến Nghệ An thì nên ở đâu cho trọn vẹn? Dưới đây là top 4 Homestay Nghệ An gửi thương gửi nhớ cho bất kỳ ai từng ghé qua dành cho bạn tham khảo!</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;strong&gt;Homestay Bản Nưa&lt;/strong&gt;&lt;/h2&gt;&lt;p style="margin-left:0px;"&gt;Bản Nưa là địa danh được các khách du lịch lựa chọn làm nơi dừng chân tham quan hàng đầu khi đến với mảnh đất Nghệ An. Chính vì thế mà mô hình Homestay Bản Nưa luôn đắt khách và đem đến cho người ở những dấu ấn rất riêng và sâu đậm.&lt;/p&gt;&lt;figure class="image"&gt;&lt;img style="aspect-ratio:600/338;" src="https://homestay.review/wp-content/uploads/2018/11/Homestay-Ban-Nua-dem-den-cho-du-khach-trai-nghiem-chan-thuc-nhat-ve-van-hoa-cac-dan-toc.jpg" width="600" height="338"&gt;&lt;figcaption&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(84,84,84);"&gt;&lt;i&gt;Homestay Bán Nữa đem đến cho du khách trải nghiệm chân thực nhất về văn hóa các dân tộc&lt;/i&gt;&lt;/span&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;p style="margin-left:0px;"&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(41,41,41);"&gt;Dịch vụ Homestay Nghệ An này hướng đến sự gần gũi, chân thực, giúp du khách tiếp xúc một cách cụ thể, thực tế nhất với từng phong tục tập quán cũng như con người nơi đây. Hằng ngày, bạn sinh sống, tiếp xúc và trải nghiệm với đồng bào dân tộc chính là cách bạn khám phá dễ dàng nhất những điều thú vị tại Nghệ An.&lt;/span&gt;&lt;/p&gt;&lt;figure class="image"&gt;&lt;img style="aspect-ratio:640/347;" src="https://homestay.review/wp-content/uploads/2018/11/Cung-nguoi-dan-tai-day-det-tho-cam.jpg" width="640" height="347"&gt;&lt;figcaption&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(84,84,84);"&gt;&lt;i&gt;Cùng người dân tại đây dệt thổ cẩm&lt;/i&gt;&lt;/span&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;p style="margin-left:0px;"&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(41,41,41);"&gt;Du khách sẽ được sống trong nhà sàn, dệt thổ cẩm, học làm món ăn của người dân tộc, múa truyền thống,…Từng ngày sống tại Bản Nưa Homestay sẽ khiến bạn đi hết từ ngỡ ngàng này đến bất ngờ khác, để rồi tất cả gói trọn trong lưu luyến và nhớ thương đến khi rời xa.&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>nghệ an, miền trung</t>
+  </si>
+  <si>
+    <t>22521484@gm.uit.edu.vn</t>
+  </si>
+  <si>
+    <t>Homestay Kom Tum Gần Trung Tâm Xinh – Chất – Đáng Tiền</t>
+  </si>
+  <si>
+    <t>Nhắc đến Tây Nguyên, người ta thường chỉ nhớ đến Đà Lạt mộng mơ và Buôn Ma Thuột. Chúng ta đã quên còn một phố núi Kom Tum đang say giấc chờ người đến khám phá. Vậy hãy theo chân chúng tớ khám phá ngay những homestay Kom Tum gần trung tâm nào !</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;1. Kontum Home Sweet Homestay&lt;/h3&gt;&lt;ul&gt;&lt;li&gt;Địa chỉ : Kom Tum&lt;/li&gt;&lt;li&gt;Gía : 115k – 267k/đêm&lt;/li&gt;&lt;/ul&gt;&lt;p style="margin-left:0px;"&gt;&lt;strong&gt;Kon Tum Home Sweet Homestay&lt;/strong&gt; mang đến một không gian hiện đại, độc đáo với decor hiện đại giữa núi rừng Tây Nguyên.&lt;/p&gt;&lt;figure class="image"&gt;&lt;img style="aspect-ratio:777/464;" src="https://homestay.review/wp-content/uploads/2019/05/kom-tum-kt-2.jpg" width="777" height="464"&gt;&lt;figcaption&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(84,84,84);"&gt;&lt;i&gt;Kon Tum Home Sweet Homestay&lt;/i&gt;&lt;/span&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;p style="margin-left:0px;"&gt;&lt;strong&gt;Homestay Kon Tum gần trung tâm&lt;/strong&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(41,41,41);"&gt; này có 3 dạng phòng là phòng đơn, phòng đôi và phòng tập thể. Thường thì một số phòng đơn sẽ ghép cùng phòng tập thể.&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>kontum</t>
+  </si>
+  <si>
+    <t>“Yêu Từ Cái Nhìn Đầu Tiên” 5 Homestay Đẹp Nhất Quy Nhơn</t>
+  </si>
+  <si>
+    <t>Có lẽ đối với nhiều người thì du lịch Quy Nhơn vẫn còn là một thứ gì đó khá mới mẻ. Không giống như Đà Nẵng hay Nha Trang, Quy Nhơn vẫn còn đó những nét đẹp tiềm ẩn chờ các bạn trẻ đến khám phá và tìm hiểu, nhưng cũng đừng mải chơi mà bỏ quên 7 homestay “chất như nước cất” dưới đây nhé.</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;&lt;strong&gt;Villa Relax&lt;/strong&gt;&lt;/li&gt;&lt;/ol&gt;&lt;p style="margin-left:0px;"&gt;Đúng như cái tên của nó “biệt thự nghỉ dưỡng”, ngay từ bên ngoài bạn đã có thể cảm nhận được lối kiến trúc sang chảnh và đầy tinh tế của Villa Relax.&lt;/p&gt;&lt;p style="margin-left:0px;"&gt;&lt;img src="https://homestay.review/wp-content/uploads/2018/12/villa-relax-quy-nhon-3.jpg" width="1024" height="683"&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>quy nhơn</t>
+  </si>
+  <si>
+    <t>A Little Hill &amp; Forest Hoà Bình – Một Nhật Bản Thu Nhỏ Giữa Lòng Hòa Bình</t>
+  </si>
+  <si>
+    <t>Tọa lạc giữa thiên nhiên núi rừng Hòa Bình, A Little Hill &amp; Forest là sự giao thoa giữa kiến trúc tối giản và thiên nhiên xanh mát. Cùng Homestay.review khám phá cụ thể hơn về A Little Hill &amp; Forest Hoà Bình trong bài viết này nhé.</t>
+  </si>
+  <si>
+    <t>&lt;figure class="image"&gt;&lt;img style="aspect-ratio:2048/1364;" src="https://homestay.review/wp-content/uploads/2023/07/khuon-vien-alittle-hill.jpg" alt="khuôn viên A Little Hill" width="2048" height="1364"&gt;&lt;/figure&gt;</t>
+  </si>
+  <si>
+    <t>forest,hill,hòa bình,nhật bản</t>
+  </si>
+  <si>
+    <t>22521718@gm.uit.edu.vn</t>
+  </si>
+  <si>
+    <t>The Nest Đà Lạt – Review Trải Nghiệm Nghỉ Dưỡng “Cực Chill”</t>
+  </si>
+  <si>
+    <t>Khám phá The Nest Đà Lạt – Trải nghiệm nghỉ dưỡng “cực chill” với view đẹp để săn mây. Nếu có ý định du lịch Đà Lạt, đừng bỏ qua khách sạn lý tưởng này, hãy cùng Homestay.Review tìm hiểu nhé!</t>
+  </si>
+  <si>
+    <t>&lt;p style="margin-left:0px;"&gt;The Nest Đà Lạt, nằm tại khu Măng Lin, phường 7, cách trung tâm thành phố Đà Lạt 10 km.&lt;/p&gt;&lt;p style="margin-left:0px;"&gt;Tại đây, kiến trúc Pháp cổ điển được tái hiện tinh tế, mang lại cho bạn cảm giác như đang lang thang trong một thời kỳ vàng son.&amp;nbsp;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>đà lạt</t>
+  </si>
+  <si>
+    <t>Khách sạn</t>
+  </si>
+  <si>
+    <t>Không Lo Cháy Túi Với Top 4 Hotel Ninh Thuận Ngon – Bổ – Rẻ</t>
+  </si>
+  <si>
+    <t>Tháng 1 này nếu như bạn chưa biết du lịch ở đâu, Ninh Thuận sẽ là một gợi ý lý tưởng cho bạn. Với không khí nhiệt đới gió mùa, đây được coi là thời điểm phù hợp nhất để khách du lịch khám phá thành phố đầy nắng gió này. Dưới đây là 4 gọi ý cho hotel Ninh Thuận được yêu thích nhất để chuyến đu của du khách thêm trọn vẹn.</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;1, Phan Rang Hotel&lt;/h3&gt;&lt;p style="margin-left:0px;"&gt;&amp;nbsp;&lt;/p&gt;&lt;p style="margin-left:0px;"&gt;&lt;strong&gt;Địa chỉ:&lt;/strong&gt; Khu phố 5, Thanh Sơn, Phan Rang, Ninh Thuận, Việt Nam&lt;/p&gt;&lt;p style="margin-left:0px;"&gt;&lt;strong&gt;Phan Rang Hotel&lt;/strong&gt; là một khách sạn khiến rất nhiều du khách yêu thích và hài lòng với background lãng mạn hiện đại và hệ thống dịch vụ sang trọng và tiện nghi. Với các khu vực sinh hoạt chung, du khách sẽ cảm thấy yêu đời và thú vị bởi không gian tràn ngập màu sắc, những gian phòng nghỉ cho khách được thiết kế theo theo lối giản dị, truyền mà vẫn sang trọng cùng những thiết bị gia dụng, dịch vụ hiện đại sẽ mang đến cho du khách những giây phút nghỉ dưỡng thảnh thơi sau một ngày mệt mỏi.&lt;/p&gt;&lt;p style="margin-left:0px;"&gt;&lt;img src="https://homestay.review/wp-content/uploads/2019/01/phan-rang-hotel.jpg" width="1024" height="649"&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>phan rang</t>
+  </si>
+  <si>
+    <t>Bài viết</t>
+  </si>
+  <si>
+    <t>Hình</t>
+  </si>
+  <si>
+    <t>1.jpg</t>
+  </si>
+  <si>
+    <t>2.jpg</t>
+  </si>
+  <si>
+    <t>3.jpg</t>
+  </si>
+  <si>
+    <t>4.jpg</t>
+  </si>
+  <si>
+    <t>5.jpg</t>
+  </si>
+  <si>
+    <t>6.jpg</t>
+  </si>
+  <si>
+    <t>7.jpg</t>
+  </si>
+  <si>
+    <t>8.jpg</t>
+  </si>
+  <si>
+    <t>9.jpg</t>
+  </si>
+  <si>
+    <t>10.jpg</t>
+  </si>
+  <si>
+    <t>11.jpg</t>
+  </si>
+  <si>
+    <t>12.jpg</t>
+  </si>
+  <si>
+    <t>13.jpg</t>
+  </si>
+  <si>
+    <t>14.jpg</t>
+  </si>
+  <si>
+    <t>15.jpg</t>
+  </si>
+  <si>
+    <t>16.jpg</t>
+  </si>
+  <si>
+    <t>17.jpg</t>
+  </si>
+  <si>
+    <t>Nơi</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>Quận huyện</t>
+  </si>
+  <si>
+    <t>Tỉnh thành</t>
+  </si>
+  <si>
+    <t>Giá thấp nhất</t>
+  </si>
+  <si>
+    <t>Giá cao nhất</t>
+  </si>
+  <si>
+    <t>N’queen Villa</t>
   </si>
   <si>
     <t>Đà Lạt</t>
   </si>
   <si>
-    <t>Top 4 Homestay Nghệ An Gửi Thương Gửi Nhớ Cho Bất Kỳ Ai Từng Ghé Qua</t>
-  </si>
-  <si>
-    <t>Người miền Trung chân tình, dễ mến lại nồng hậu, hiếu khách. Bất kỳ ai ghé qua mảnh đất Nghệ An nói riêng hay miền Trung nói chung đều lưu luyến và nhớ mãi không quên. Vậy đến Nghệ An thì nên ở đâu cho trọn vẹn? Dưới đây là top 4 Homestay Nghệ An gửi thương gửi nhớ cho bất kỳ ai từng ghé qua dành cho bạn tham khảo!</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;&lt;strong&gt;Homestay Bản Nưa&lt;/strong&gt;&lt;/h2&gt;&lt;p style="margin-left:0px;"&gt;Bản Nưa là địa danh được các khách du lịch lựa chọn làm nơi dừng chân tham quan hàng đầu khi đến với mảnh đất Nghệ An. Chính vì thế mà mô hình Homestay Bản Nưa luôn đắt khách và đem đến cho người ở những dấu ấn rất riêng và sâu đậm.&lt;/p&gt;&lt;figure class="image"&gt;&lt;img style="aspect-ratio:600/338;" src="https://homestay.review/wp-content/uploads/2018/11/Homestay-Ban-Nua-dem-den-cho-du-khach-trai-nghiem-chan-thuc-nhat-ve-van-hoa-cac-dan-toc.jpg" width="600" height="338"&gt;&lt;figcaption&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(84,84,84);"&gt;&lt;i&gt;Homestay Bán Nữa đem đến cho du khách trải nghiệm chân thực nhất về văn hóa các dân tộc&lt;/i&gt;&lt;/span&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;p style="margin-left:0px;"&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(41,41,41);"&gt;Dịch vụ Homestay Nghệ An này hướng đến sự gần gũi, chân thực, giúp du khách tiếp xúc một cách cụ thể, thực tế nhất với từng phong tục tập quán cũng như con người nơi đây. Hằng ngày, bạn sinh sống, tiếp xúc và trải nghiệm với đồng bào dân tộc chính là cách bạn khám phá dễ dàng nhất những điều thú vị tại Nghệ An.&lt;/span&gt;&lt;/p&gt;&lt;figure class="image"&gt;&lt;img style="aspect-ratio:640/347;" src="https://homestay.review/wp-content/uploads/2018/11/Cung-nguoi-dan-tai-day-det-tho-cam.jpg" width="640" height="347"&gt;&lt;figcaption&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(84,84,84);"&gt;&lt;i&gt;Cùng người dân tại đây dệt thổ cẩm&lt;/i&gt;&lt;/span&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;p style="margin-left:0px;"&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(41,41,41);"&gt;Du khách sẽ được sống trong nhà sàn, dệt thổ cẩm, học làm món ăn của người dân tộc, múa truyền thống,…Từng ngày sống tại Bản Nưa Homestay sẽ khiến bạn đi hết từ ngỡ ngàng này đến bất ngờ khác, để rồi tất cả gói trọn trong lưu luyến và nhớ thương đến khi rời xa.&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>nghệ an, miền trung</t>
-  </si>
-  <si>
-    <t>Homestay Kom Tum Gần Trung Tâm Xinh – Chất – Đáng Tiền</t>
-  </si>
-  <si>
-    <t>Nhắc đến Tây Nguyên, người ta thường chỉ nhớ đến Đà Lạt mộng mơ và Buôn Ma Thuột. Chúng ta đã quên còn một phố núi Kom Tum đang say giấc chờ người đến khám phá. Vậy hãy theo chân chúng tớ khám phá ngay những homestay Kom Tum gần trung tâm nào !</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;1. Kontum Home Sweet Homestay&lt;/h3&gt;&lt;ul&gt;&lt;li&gt;Địa chỉ : Kom Tum&lt;/li&gt;&lt;li&gt;Gía : 115k – 267k/đêm&lt;/li&gt;&lt;/ul&gt;&lt;p style="margin-left:0px;"&gt;&lt;strong&gt;Kon Tum Home Sweet Homestay&lt;/strong&gt; mang đến một không gian hiện đại, độc đáo với decor hiện đại giữa núi rừng Tây Nguyên.&lt;/p&gt;&lt;figure class="image"&gt;&lt;img style="aspect-ratio:777/464;" src="https://homestay.review/wp-content/uploads/2019/05/kom-tum-kt-2.jpg" width="777" height="464"&gt;&lt;figcaption&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(84,84,84);"&gt;&lt;i&gt;Kon Tum Home Sweet Homestay&lt;/i&gt;&lt;/span&gt;&lt;/figcaption&gt;&lt;/figure&gt;&lt;p style="margin-left:0px;"&gt;&lt;strong&gt;Homestay Kon Tum gần trung tâm&lt;/strong&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(41,41,41);"&gt; này có 3 dạng phòng là phòng đơn, phòng đôi và phòng tập thể. Thường thì một số phòng đơn sẽ ghép cùng phòng tập thể.&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>kontum</t>
-  </si>
-  <si>
-    <t>“Yêu Từ Cái Nhìn Đầu Tiên” 5 Homestay Đẹp Nhất Quy Nhơn</t>
-  </si>
-  <si>
-    <t>Có lẽ đối với nhiều người thì du lịch Quy Nhơn vẫn còn là một thứ gì đó khá mới mẻ. Không giống như Đà Nẵng hay Nha Trang, Quy Nhơn vẫn còn đó những nét đẹp tiềm ẩn chờ các bạn trẻ đến khám phá và tìm hiểu, nhưng cũng đừng mải chơi mà bỏ quên 7 homestay “chất như nước cất” dưới đây nhé.</t>
-  </si>
-  <si>
-    <t>&lt;ol&gt;&lt;li&gt;&lt;strong&gt;Villa Relax&lt;/strong&gt;&lt;/li&gt;&lt;/ol&gt;&lt;p style="margin-left:0px;"&gt;Đúng như cái tên của nó “biệt thự nghỉ dưỡng”, ngay từ bên ngoài bạn đã có thể cảm nhận được lối kiến trúc sang chảnh và đầy tinh tế của Villa Relax.&lt;/p&gt;&lt;p style="margin-left:0px;"&gt;&lt;img src="https://homestay.review/wp-content/uploads/2018/12/villa-relax-quy-nhon-3.jpg" width="1024" height="683"&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>quy nhơn</t>
-  </si>
-  <si>
-    <t>A Little Hill &amp; Forest Hoà Bình – Một Nhật Bản Thu Nhỏ Giữa Lòng Hòa Bình</t>
-  </si>
-  <si>
-    <t>Tọa lạc giữa thiên nhiên núi rừng Hòa Bình, A Little Hill &amp; Forest là sự giao thoa giữa kiến trúc tối giản và thiên nhiên xanh mát. Cùng Homestay.review khám phá cụ thể hơn về A Little Hill &amp; Forest Hoà Bình trong bài viết này nhé.</t>
-  </si>
-  <si>
-    <t>&lt;figure class="image"&gt;&lt;img style="aspect-ratio:2048/1364;" src="https://homestay.review/wp-content/uploads/2023/07/khuon-vien-alittle-hill.jpg" alt="khuôn viên A Little Hill" width="2048" height="1364"&gt;&lt;/figure&gt;</t>
-  </si>
-  <si>
-    <t>forest,hill,hòa bình,nhật bản</t>
-  </si>
-  <si>
-    <t>The Nest Đà Lạt – Review Trải Nghiệm Nghỉ Dưỡng “Cực Chill”</t>
-  </si>
-  <si>
-    <t>Khám phá The Nest Đà Lạt – Trải nghiệm nghỉ dưỡng “cực chill” với view đẹp để săn mây. Nếu có ý định du lịch Đà Lạt, đừng bỏ qua khách sạn lý tưởng này, hãy cùng Homestay.Review tìm hiểu nhé!</t>
-  </si>
-  <si>
-    <t>&lt;p style="margin-left:0px;"&gt;The Nest Đà Lạt, nằm tại khu Măng Lin, phường 7, cách trung tâm thành phố Đà Lạt 10 km.&lt;/p&gt;&lt;p style="margin-left:0px;"&gt;Tại đây, kiến trúc Pháp cổ điển được tái hiện tinh tế, mang lại cho bạn cảm giác như đang lang thang trong một thời kỳ vàng son.&amp;nbsp;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>đà lạt</t>
-  </si>
-  <si>
-    <t>Khách sạn</t>
-  </si>
-  <si>
-    <t>Không Lo Cháy Túi Với Top 4 Hotel Ninh Thuận Ngon – Bổ – Rẻ</t>
-  </si>
-  <si>
-    <t>Tháng 1 này nếu như bạn chưa biết du lịch ở đâu, Ninh Thuận sẽ là một gợi ý lý tưởng cho bạn. Với không khí nhiệt đới gió mùa, đây được coi là thời điểm phù hợp nhất để khách du lịch khám phá thành phố đầy nắng gió này. Dưới đây là 4 gọi ý cho hotel Ninh Thuận được yêu thích nhất để chuyến đu của du khách thêm trọn vẹn.</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;1, Phan Rang Hotel&lt;/h3&gt;&lt;p style="margin-left:0px;"&gt;&amp;nbsp;&lt;/p&gt;&lt;p style="margin-left:0px;"&gt;&lt;strong&gt;Địa chỉ:&lt;/strong&gt; Khu phố 5, Thanh Sơn, Phan Rang, Ninh Thuận, Việt Nam&lt;/p&gt;&lt;p style="margin-left:0px;"&gt;&lt;strong&gt;Phan Rang Hotel&lt;/strong&gt; là một khách sạn khiến rất nhiều du khách yêu thích và hài lòng với background lãng mạn hiện đại và hệ thống dịch vụ sang trọng và tiện nghi. Với các khu vực sinh hoạt chung, du khách sẽ cảm thấy yêu đời và thú vị bởi không gian tràn ngập màu sắc, những gian phòng nghỉ cho khách được thiết kế theo theo lối giản dị, truyền mà vẫn sang trọng cùng những thiết bị gia dụng, dịch vụ hiện đại sẽ mang đến cho du khách những giây phút nghỉ dưỡng thảnh thơi sau một ngày mệt mỏi.&lt;/p&gt;&lt;p style="margin-left:0px;"&gt;&lt;img src="https://homestay.review/wp-content/uploads/2019/01/phan-rang-hotel.jpg" width="1024" height="649"&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>phan rang</t>
-  </si>
-  <si>
-    <t>17520926@gm.uit.edu.vn</t>
+    <t>Lâm Đồng</t>
+  </si>
+  <si>
+    <t>Bản Nưa</t>
+  </si>
+  <si>
+    <t>Con Cuông</t>
   </si>
   <si>
     <t>Nghệ An</t>
   </si>
   <si>
-    <t>Miền Trung</t>
-  </si>
-  <si>
-    <t>Kom Tum</t>
-  </si>
-  <si>
-    <t>Miền Bắc</t>
+    <t>Dong Du Village</t>
+  </si>
+  <si>
+    <t>Nghĩa Đàn</t>
+  </si>
+  <si>
+    <t>Hồng Long</t>
+  </si>
+  <si>
+    <t>Lưu Phúc</t>
+  </si>
+  <si>
+    <t>Nam Đàn</t>
+  </si>
+  <si>
+    <t>Kontum Home Sweet</t>
+  </si>
+  <si>
+    <t>Kon Tum</t>
+  </si>
+  <si>
+    <t>Hnam Chang Ngeh</t>
+  </si>
+  <si>
+    <t>Bích Ngọc</t>
+  </si>
+  <si>
+    <t>Villa Relax</t>
+  </si>
+  <si>
+    <t>Quy Nhơn</t>
+  </si>
+  <si>
+    <t>Bình Định</t>
+  </si>
+  <si>
+    <t>Lan Anh</t>
+  </si>
+  <si>
+    <t>LaRose</t>
+  </si>
+  <si>
+    <t>Home – Quy Nhơn Bed &amp; Room</t>
+  </si>
+  <si>
+    <t>Life’s A Beach</t>
+  </si>
+  <si>
+    <t>A Little Hill &amp; Forest</t>
+  </si>
+  <si>
+    <t>Lương Sơn</t>
   </si>
   <si>
     <t>Hòa Bình</t>
   </si>
   <si>
-    <t>Miền Tây</t>
-  </si>
-  <si>
-    <t>Quy Nhơn</t>
+    <t>The Nest Đà Lạt</t>
   </si>
   <si>
     <t>Phan Rang</t>
   </si>
   <si>
-    <t>22521484@gm.uit.edu.vn</t>
-  </si>
-  <si>
-    <t>22521718@gm.uit.edu.vn</t>
+    <t>Ninh Thuận</t>
+  </si>
+  <si>
+    <t>Minh Quang</t>
+  </si>
+  <si>
+    <t>Ninh Chu</t>
+  </si>
+  <si>
+    <t>Đông Nam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -227,11 +361,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -537,24 +674,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" customWidth="1"/>
     <col min="3" max="3" width="30.88671875" customWidth="1"/>
     <col min="5" max="5" width="37.6640625" customWidth="1"/>
     <col min="6" max="6" width="31.77734375" customWidth="1"/>
-    <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="29.6640625" customWidth="1"/>
-    <col min="9" max="9" width="41.88671875" customWidth="1"/>
+    <col min="7" max="7" width="41.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -576,225 +712,865 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>34</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>35</v>
       </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
       <c r="F8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{B420A66A-505A-4E2C-A4B2-EB02B4914F73}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{C3AB77F0-0ADC-4123-9985-B24A2CA60518}"/>
-    <hyperlink ref="I4:I8" r:id="rId3" display="17520926@gm.uit.edu.vn" xr:uid="{5B8EFA68-7EF5-4ADB-9D73-1144791C4C4C}"/>
-    <hyperlink ref="I6" r:id="rId4" xr:uid="{D49DB212-311A-45B6-BBE7-7B53679D9CF0}"/>
-    <hyperlink ref="I5" r:id="rId5" xr:uid="{AAA77E7E-D75C-482E-8784-FDC0EE470A0C}"/>
-    <hyperlink ref="I8" r:id="rId6" xr:uid="{F08E9548-ADD9-48E0-A410-5C690DF1DBCF}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:V20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="63.33203125" customWidth="1"/>
+    <col min="3" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" customWidth="1"/>
+    <col min="9" max="20" width="8.88671875" customWidth="1"/>
+    <col min="21" max="21" width="8.88671875" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="2">
+        <v>400000</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="2">
+        <v>500000</v>
+      </c>
+      <c r="H4" s="2">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="2">
+        <v>300000</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="2">
+        <v>180000</v>
+      </c>
+      <c r="H7" s="2">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="2">
+        <v>350000</v>
+      </c>
+      <c r="H8" s="2">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H9" s="2">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2600000</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="2">
+        <v>350000</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="2">
+        <v>400000</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="2">
+        <v>150000</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="2">
+        <v>200000</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="2">
+        <v>12000000</v>
+      </c>
+      <c r="H15" s="2">
+        <v>16000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="2">
+        <v>800000</v>
+      </c>
+      <c r="H16" s="2">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="2">
+        <v>330000</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="2">
+        <v>413250</v>
+      </c>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="2">
+        <v>315368</v>
+      </c>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="2">
+        <v>650000</v>
+      </c>
+      <c r="H20" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/database/data/reviews.xlsx
+++ b/database/data/reviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ReviewTravel\Group6_SE347.O11\database\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC1053C-6A45-497E-9B9D-AB624C0B2707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872961FC-5DBD-437A-9BC9-73147ABA8E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="170">
   <si>
     <t>ID</t>
   </si>
@@ -469,6 +469,69 @@
   </si>
   <si>
     <t>241206879_3119526571598756_1243145658553360994_n-1.jpg</t>
+  </si>
+  <si>
+    <t>Phát Hiện Một Homestay Phú Quốc Có Rooftop Ngắm Hoàng Hôn Cực Chill!</t>
+  </si>
+  <si>
+    <t>Băn khoăn chưa biết chọn homestay Phú Quốc nào cho chuyến đi du lịch sắp tới? Để Homestay Review giới thiệu cho các bạn một căn homestay cực xinh mà giá cả lại phải chăng. Không chỉ ở vị trí đẹp, tiện đi lại mà homestay còn có nhiều tiện ích cực hấp dẫn nữa đó!</t>
+  </si>
+  <si>
+    <t>Phố đi bộ Sonasea, Đường Bào</t>
+  </si>
+  <si>
+    <t>Holiday Romance Phú Quốc</t>
+  </si>
+  <si>
+    <t>&lt;p style="margin-left:0px;text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;Holiday Romance Apartment tọa lạc tại khu phố đi bộ hiện đại mới của Phú Quốc. Holiday Roman có 04 căn hộ phù hợp với từng đối tượng khách hàng riêng biệt. Mỗi căn lại có một thiết kế không gian nội thất bày trí ấn tượng.&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-left:0px;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;&lt;img style="height:auto;" src="https://homestay.review/wp-content/uploads/2021/04/8-16494-300x225.jpeg" alt="" srcset="https://homestay.review/wp-content/uploads/2021/04/8-16494-300x225.jpeg 300w, https://homestay.review/wp-content/uploads/2021/04/8-16494-1024x768.jpeg 1024w, https://homestay.review/wp-content/uploads/2021/04/8-16494-768x576.jpeg 768w, https://homestay.review/wp-content/uploads/2021/04/8-16494-1536x1152.jpeg 1536w, https://homestay.review/wp-content/uploads/2021/04/8-16494-86x64.jpeg 86w, https://homestay.review/wp-content/uploads/2021/04/8-16494.jpeg 2048w" sizes="100vw" width="780" height="585"&gt;&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-left:0px;text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;Lưu trú tại đây bạn sẽ được trải nghiệm những khoảnh khắc sống “thật” lung linh không cần chỉnh sửa. Không chỉ có chỗ nghỉ ngơi thoải mái mà còn không gian sinh hoạt lý tưởng, đủ để bày biện biết bao cuộc vui.&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-left:0px;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;&lt;img style="height:auto;" src="https://homestay.review/wp-content/uploads/2021/04/159512764_1342217616135054_2705855460809883874_n-300x200.jpeg" alt="" srcset="https://homestay.review/wp-content/uploads/2021/04/159512764_1342217616135054_2705855460809883874_n-300x200.jpeg 300w, https://homestay.review/wp-content/uploads/2021/04/159512764_1342217616135054_2705855460809883874_n-1024x683.jpeg 1024w, https://homestay.review/wp-content/uploads/2021/04/159512764_1342217616135054_2705855460809883874_n-768x512.jpeg 768w, https://homestay.review/wp-content/uploads/2021/04/159512764_1342217616135054_2705855460809883874_n-1536x1024.jpeg 1536w, https://homestay.review/wp-content/uploads/2021/04/159512764_1342217616135054_2705855460809883874_n.jpeg 2048w" sizes="100vw" width="777" height="518"&gt;&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-left:0px;text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;Phố đi bộ Sonasea có rất nhiều nhà hàng, quán cà phê, spa, rất tiện lợi để đi du lịch. Homestay cách chợ địa phương 5 phút đi xe. Bạn có thể tự mình ghé tới chợ mua hải sản hay đồ ăn để tự nấu ăn tại phòng.&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-left:0px;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;&lt;img style="height:auto;" src="https://homestay.review/wp-content/uploads/2021/04/131101468_1285389435151206_2687201537620803342_n-300x200.jpeg" alt="" srcset="https://homestay.review/wp-content/uploads/2021/04/131101468_1285389435151206_2687201537620803342_n-300x200.jpeg 300w, https://homestay.review/wp-content/uploads/2021/04/131101468_1285389435151206_2687201537620803342_n-1024x683.jpeg 1024w, https://homestay.review/wp-content/uploads/2021/04/131101468_1285389435151206_2687201537620803342_n-768x512.jpeg 768w, https://homestay.review/wp-content/uploads/2021/04/131101468_1285389435151206_2687201537620803342_n-1536x1025.jpeg 1536w, https://homestay.review/wp-content/uploads/2021/04/131101468_1285389435151206_2687201537620803342_n.jpeg 1920w" sizes="100vw" width="779" height="519"&gt;&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-left:0px;text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;Nằm trong cung đường ven biển ngắm Hoàng Hôn đẹp nhất Phú Quốc. Holiday Romance ghi lại ấn tượng sâu sắc bởi view ngắm cảnh tuyệt đẹp. Gần như là một trong những homestay Phú Quốc duy nhất có view rooftop.&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;h3 style="text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;&lt;strong&gt;Các căn phòng đặc biệt tại Holiday Romance homestay Phú Quốc&lt;/strong&gt;&amp;nbsp;&lt;/span&gt;&lt;/h3&gt;&lt;p style="margin-left:0px;text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;Holiday Romance bao gồm 4 căn hộ với phong cách hoàn toàn khác nhau: Pinky, Tropical, Japan, Studio. Tùy vào sở thích và số lượng người mà bạn có thể lựa chọn căn hộ phù hợp cho bản thân, gia đình và bạn bè.&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;h4 style="text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;&lt;i&gt;&lt;strong&gt;Japan Room – Cảm hứng Nhật Bản&lt;/strong&gt;&lt;/i&gt;&lt;/span&gt;&lt;/h4&gt;&lt;p style="margin-left:0px;text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;Nếu là nhóm bạn hoặc gia đình đang tìm kiếm một nơi dừng chân rộng rãi, thoáng mát và đầy đủ tiện nghi, căn hộ Japan chính là nơi dành cho bạn. Là phòng rộng nhất Holiday Romance với diện tích sàn 60m2 và không gian bài trí tối giản – hài hòa – thân thiện, Japan sẽ tạo cảm giác gắn bó cho cả nhà trong suốt kỳ nghỉ dài ngày.&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-left:0px;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;&lt;img style="height:auto;" src="https://homestay.review/wp-content/uploads/2021/04/131216502_1285388798484603_5759387040893348896_n-300x300.jpeg" alt="" srcset="https://homestay.review/wp-content/uploads/2021/04/131216502_1285388798484603_5759387040893348896_n-300x300.jpeg 300w, https://homestay.review/wp-content/uploads/2021/04/131216502_1285388798484603_5759387040893348896_n-1024x1024.jpeg 1024w, https://homestay.review/wp-content/uploads/2021/04/131216502_1285388798484603_5759387040893348896_n-150x150.jpeg 150w, https://homestay.review/wp-content/uploads/2021/04/131216502_1285388798484603_5759387040893348896_n-768x768.jpeg 768w, https://homestay.review/wp-content/uploads/2021/04/131216502_1285388798484603_5759387040893348896_n.jpeg 1440w" sizes="100vw" width="778" height="778"&gt; &lt;img style="height:auto;" src="https://homestay.review/wp-content/uploads/2021/04/131418092_1285388758484607_2198679898299294874_n-300x200.jpeg" alt="" srcset="https://homestay.review/wp-content/uploads/2021/04/131418092_1285388758484607_2198679898299294874_n-300x200.jpeg 300w, https://homestay.review/wp-content/uploads/2021/04/131418092_1285388758484607_2198679898299294874_n-1024x684.jpeg 1024w, https://homestay.review/wp-content/uploads/2021/04/131418092_1285388758484607_2198679898299294874_n-768x513.jpeg 768w, https://homestay.review/wp-content/uploads/2021/04/131418092_1285388758484607_2198679898299294874_n-1536x1025.jpeg 1536w, https://homestay.review/wp-content/uploads/2021/04/131418092_1285388758484607_2198679898299294874_n.jpeg 2048w" sizes="100vw" width="777" height="518"&gt;&lt;/span&gt;&lt;/p&gt;&lt;h4 style="text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;&lt;i&gt;&lt;strong&gt;Tropical Room – Cảm hứng rừng nhiệt đới&lt;/strong&gt;&lt;/i&gt;&lt;/span&gt;&lt;/h4&gt;&lt;p style="margin-left:0px;text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;Vậy còn lựa chọn nào cho những người trẻ hoặc những hộ gia đình thích tiết kiệm tối đa nhưng vẫn muốn được tận hưởng dịch vụ cao cấp? Chắc chắn bạn không thể bỏ qua phòng Studio và Tropical với diện tích gọn gàng, mức giá siêu yêu cùng cách bài trí khéo léo thông minh. Bếp ăn đầy đủ vật dụng cần thiết và máy giặt miễn phí trên sân thượng là một điểm cộng cực lớn khi bạn chọn Holiday Romance cho chuyến du lịch tại đảo Ngọc dài ngày&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-left:0px;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;&lt;img style="height:auto;" src="https://homestay.review/wp-content/uploads/2021/04/7-17293-300x200.jpeg" alt="" srcset="https://homestay.review/wp-content/uploads/2021/04/7-17293-300x200.jpeg 300w, https://homestay.review/wp-content/uploads/2021/04/7-17293-768x513.jpeg 768w, https://homestay.review/wp-content/uploads/2021/04/7-17293.jpeg 960w" sizes="100vw" width="779" height="519"&gt; &lt;img style="height:auto;" src="https://homestay.review/wp-content/uploads/2021/04/4-17295-300x200.jpeg" alt="" srcset="https://homestay.review/wp-content/uploads/2021/04/4-17295-300x200.jpeg 300w, https://homestay.review/wp-content/uploads/2021/04/4-17295-768x513.jpeg 768w, https://homestay.review/wp-content/uploads/2021/04/4-17295.jpeg 960w" sizes="100vw" width="780" height="520"&gt;&lt;/span&gt;&lt;/p&gt;&lt;h4 style="text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;&lt;i&gt;&lt;strong&gt;Studio Room&amp;nbsp;&lt;/strong&gt;&lt;/i&gt;&lt;/span&gt;&lt;/h4&gt;&lt;p style="margin-left:0px;text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;Vậy còn lựa chọn nào cho những người trẻ hoặc những hộ gia đình thích tiết kiệm tối đa nhưng vẫn muốn được tận hưởng dịch vụ cao cấp? Chắc chắn bạn không thể bỏ qua phòng Studio và Tropical với diện tích gọn gàng, mức giá siêu yêu cùng cách bài trí khéo léo thông minh. Bếp ăn đầy đủ vật dụng cần thiết và máy giặt miễn phí trên sân thượng là một điểm cộng cực lớn khi bạn chọn Holiday Romance cho chuyến du lịch tại đảo Ngọc dài ngày.&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-left:0px;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;&lt;img style="height:auto;" src="https://homestay.review/wp-content/uploads/2021/04/131101468_1285389435151206_2687201537620803342_n-300x200.jpeg" alt="" srcset="https://homestay.review/wp-content/uploads/2021/04/131101468_1285389435151206_2687201537620803342_n-300x200.jpeg 300w, https://homestay.review/wp-content/uploads/2021/04/131101468_1285389435151206_2687201537620803342_n-1024x683.jpeg 1024w, https://homestay.review/wp-content/uploads/2021/04/131101468_1285389435151206_2687201537620803342_n-768x512.jpeg 768w, https://homestay.review/wp-content/uploads/2021/04/131101468_1285389435151206_2687201537620803342_n-1536x1025.jpeg 1536w, https://homestay.review/wp-content/uploads/2021/04/131101468_1285389435151206_2687201537620803342_n.jpeg 1920w" sizes="100vw" width="779" height="519"&gt; &lt;img style="height:auto;" src="https://homestay.review/wp-content/uploads/2021/04/157695009_1342216926135123_6398424147575545722_n-300x200.jpeg" alt="" srcset="https://homestay.review/wp-content/uploads/2021/04/157695009_1342216926135123_6398424147575545722_n-300x200.jpeg 300w, https://homestay.review/wp-content/uploads/2021/04/157695009_1342216926135123_6398424147575545722_n-1024x684.jpeg 1024w, https://homestay.review/wp-content/uploads/2021/04/157695009_1342216926135123_6398424147575545722_n-768x513.jpeg 768w, https://homestay.review/wp-content/uploads/2021/04/157695009_1342216926135123_6398424147575545722_n-1536x1026.jpeg 1536w, https://homestay.review/wp-content/uploads/2021/04/157695009_1342216926135123_6398424147575545722_n.jpeg 1920w" sizes="100vw" width="779" height="519"&gt;&lt;/span&gt;&lt;/p&gt;&lt;h4 style="text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;&lt;i&gt;&lt;strong&gt;Pinky Room – Ngọt ngào và lãng mạn&lt;/strong&gt;&lt;/i&gt;&lt;/span&gt;&lt;/h4&gt;&lt;p style="margin-left:0px;text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;Nếu bạn là một cặp đôi đang cần lắm một không gian ngọt ngào nhiều cảm xúc. Hay một nhóm những người bạn thích sự sáng tạo hãy thử một lần đến với phòng Pinky. Nơi đây, bạn có thể ngâm mình thư giãn trong chiếc bồn tắm cao cấp đặt ngay giữa phòng. Tận hưởng cảm xúc lãng mạn trong sắc hồng bao phủ. Đặc biệt hơn, bạn có thể đặt dịch vụ trang trí trọn gói để có một không gian mang đậm dấu ấn riêng của chính mình, giúp những cặp đôi hoặc nhóm bạn có một kỷ niệm không thể nào quên.&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-left:0px;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;&lt;img style="height:auto;" src="https://homestay.review/wp-content/uploads/2021/04/1-16487-300x200.jpeg" alt="" srcset="https://homestay.review/wp-content/uploads/2021/04/1-16487-300x200.jpeg 300w, https://homestay.review/wp-content/uploads/2021/04/1-16487-768x513.jpeg 768w, https://homestay.review/wp-content/uploads/2021/04/1-16487.jpeg 960w" sizes="100vw" width="777" height="518"&gt; &lt;img style="height:auto;" src="https://homestay.review/wp-content/uploads/2021/04/4-16497-300x200.jpeg" alt="" srcset="https://homestay.review/wp-content/uploads/2021/04/4-16497-300x200.jpeg 300w, https://homestay.review/wp-content/uploads/2021/04/4-16497-768x513.jpeg 768w, https://homestay.review/wp-content/uploads/2021/04/4-16497.jpeg 960w" sizes="100vw" width="777" height="518"&gt;&lt;/span&gt;&lt;/p&gt;&lt;h3 style="text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;&lt;i&gt;&lt;strong&gt;Tiện ích các căn hộ tại Holiday Romance&amp;nbsp;&lt;/strong&gt;&lt;/i&gt;&lt;/span&gt;&lt;/h3&gt;&lt;p style="margin-left:0px;text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;Căn hộ riêng tư với không gian rộng rãi, bồn tắm và đầy đủ nội thất. Các phòng đều có giường lớn King size 1m8 hoặc Queen Size 1m6.&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-left:0px;text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;Mỗi căn đều có ban công view ngắm rừng núi hoặc bầu trời, bạn có thể săn hoàng hôn hoặc đón hoàng hôn mỗi sáng.&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-left:0px;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;&lt;img style="height:auto;" src="https://homestay.review/wp-content/uploads/2021/04/5-17297-300x200.jpeg" alt="" srcset="https://homestay.review/wp-content/uploads/2021/04/5-17297-300x200.jpeg 300w, https://homestay.review/wp-content/uploads/2021/04/5-17297-768x513.jpeg 768w, https://homestay.review/wp-content/uploads/2021/04/5-17297.jpeg 960w" sizes="100vw" width="779" height="519"&gt;&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-left:0px;text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;Khách được sử dụng bãi biển và hồ bơi gần homestay miễn phí. Ngoài ra thì có thể check-in thả ga tại studio chụp hình trên sân thượng của căn hộ.&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-left:0px;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;&lt;img style="height:auto;" src="https://homestay.review/wp-content/uploads/2021/04/157710759_1342215182801964_3123830659475703503_n-300x200.jpeg" alt="" srcset="https://homestay.review/wp-content/uploads/2021/04/157710759_1342215182801964_3123830659475703503_n-300x200.jpeg 300w, https://homestay.review/wp-content/uploads/2021/04/157710759_1342215182801964_3123830659475703503_n-1024x683.jpeg 1024w, https://homestay.review/wp-content/uploads/2021/04/157710759_1342215182801964_3123830659475703503_n-768x512.jpeg 768w, https://homestay.review/wp-content/uploads/2021/04/157710759_1342215182801964_3123830659475703503_n-1536x1024.jpeg 1536w, https://homestay.review/wp-content/uploads/2021/04/157710759_1342215182801964_3123830659475703503_n.jpeg 2048w" sizes="100vw" width="776" height="517"&gt;&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-left:0px;text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;Từ Holiday Romance homestay Phú Quốc khách có thể ghé thăm các quán cà phê, bar cực chill. Những địa điểm phải ghé đó là Gaiia Rooftop – Quán bar phong cách Maroc có view ngắm hoàng hôn. Sunset Sanato, Sailing club, Sky Bar Best Western, Sky Bar, INK 360, Ando Chine Beach Bar, Shri Beach Bar..&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-left:0px;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;&lt;img style="height:auto;" src="https://homestay.review/wp-content/uploads/2021/04/6-164910-300x225.jpeg" alt="" srcset="https://homestay.review/wp-content/uploads/2021/04/6-164910-300x225.jpeg 300w, https://homestay.review/wp-content/uploads/2021/04/6-164910-1024x768.jpeg 1024w, https://homestay.review/wp-content/uploads/2021/04/6-164910-768x576.jpeg 768w, https://homestay.review/wp-content/uploads/2021/04/6-164910-86x64.jpeg 86w, https://homestay.review/wp-content/uploads/2021/04/6-164910.jpeg 1080w" sizes="100vw" width="779" height="584"&gt;&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-left:0px;text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;Không chỉ có thể, khách tại Holiday Romance còn nhận được ưu đãi lên đến 20% khi mua tour trải nghiệm Bãi Thơm. Ưu đãi lên đến 15% khi ghé các quán Gaiia Rooftop, Shri Beach Bar, The Home Pizza. Giảm 5 – 10% Khi book các tour du lịch tại Phú Quốc.&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;h3 style="text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;&lt;strong&gt;Tham khảo giá phòng tại Holiday Romance homestay Phú Quốc&lt;/strong&gt;&lt;/span&gt;&lt;/h3&gt;&lt;ul style="list-style-type:disc;"&gt;&lt;li style="margin-left:0px;text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;Tropical Room dành cho 2 người – 650k/ đêm (có thay đổi tuỳ ngày lễ)&amp;nbsp;&lt;/span&gt;&lt;/li&gt;&lt;li style="margin-left:0px;text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;Studio Room dành cho 2 người – 800k/ đêm (có thay đổi tuỳ ngày lễ)&amp;nbsp;&lt;/span&gt;&lt;/li&gt;&lt;li style="margin-left:0px;text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;Japan Room dành cho 2 người – 900k/ đêm (có thay đổi tuỳ ngày lễ)&amp;nbsp;&lt;/span&gt;&lt;/li&gt;&lt;li style="margin-left:0px;text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;Pinky Room dành cho 2 người – 650k/ đêm (có thay đổi tuỳ ngày lễ)&amp;nbsp;&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>rooftop,Phú Quốc,biển,bể bơi</t>
+  </si>
+  <si>
+    <t>8-16494-1024x768.jpeg</t>
+  </si>
+  <si>
+    <t>159512764_1342217616135054_2705855460809883874_n.jpeg</t>
+  </si>
+  <si>
+    <t>131101468_1285389435151206_2687201537620803342_n-1024x683.jpeg</t>
+  </si>
+  <si>
+    <t>Top 3 Khách Sạn Được Du Khách Ưa Thích Nhất Tại Đà Lạt</t>
+  </si>
+  <si>
+    <t>Đà lạt đang bước vào mùa du lịch với lượng du khách đông đảo, dưới đây là 5 khách sạn Đà Lạt được xem là tốt nhất với vị trí thuận lợi, phục vụ tốt và không gian dễ chịu du khách không thể không tham khảo cho một chuyến du lịch đáng nhớ tại thành phố xinh đẹp này.</t>
+  </si>
+  <si>
+    <t>&lt;h3 style="text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;1. Belle Amour Hotel&lt;/span&gt;&lt;/h3&gt;&lt;p style="margin-left:0px;text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;Địa chỉ: 16A Phạm Ngũ Lão, quận 3, thành phố Đà Lạt, Việt Nam&lt;/span&gt;&lt;/p&gt;&lt;p style="text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;&lt;img style="height:auto;" src="https://homestay.review/wp-content/uploads/2018/12/Belle-Amour-Hotel-%C4%90%C3%A0-L%E1%BA%A1t-10.jpg" alt="" srcset="https://homestay.review/wp-content/uploads/2018/12/Belle-Amour-Hotel-Đà-Lạt-10.jpg 576w, https://homestay.review/wp-content/uploads/2018/12/Belle-Amour-Hotel-Đà-Lạt-10-225x300.jpg 225w, https://homestay.review/wp-content/uploads/2018/12/Belle-Amour-Hotel-Đà-Lạt-10-315x420.jpg 315w" sizes="100vw" width="576" height="768"&gt;&lt;/span&gt;&lt;/p&gt;&lt;p style="text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;&lt;i&gt;Thiết kế độc đáo&lt;/i&gt;&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-left:0px;text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;Đến với&amp;nbsp; &lt;strong&gt;Belle Amour Hotel&lt;/strong&gt;, du khách sẽ bị ấn tượng bởi sự sang trọng, hiện đại của khách sạn với lối kiến trúc kiểu Âu quen thuộc. Là một khách sạn 2 sao nằm trên một con dốc nhỏ thuộc đường Phạm Ngũ Lão, Belle Amour sẵn sàng phục vụ du khách 24/24 với những dịch vụ về ăn uống, vui chơi và thư giãn căn bản giúp sẽ giúp du khách thư thái và có những giấc ngủ ngon trong những ngày lưu trú tại đây.&lt;/span&gt;&lt;/p&gt;&lt;p style="text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;&lt;img style="height:auto;" src="https://homestay.review/wp-content/uploads/2019/01/139278473.jpg" alt="" srcset="https://homestay.review/wp-content/uploads/2019/01/139278473.jpg 1242w, https://homestay.review/wp-content/uploads/2019/01/139278473-300x199.jpg 300w, https://homestay.review/wp-content/uploads/2019/01/139278473-768x510.jpg 768w, https://homestay.review/wp-content/uploads/2019/01/139278473-1024x679.jpg 1024w" sizes="100vw" width="1242" height="824"&gt;&lt;/span&gt;&lt;/p&gt;&lt;p style="text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;&lt;i&gt;Phòng ngủ sang trọng&lt;/i&gt;&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-left:0px;text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;Khác với những khách sạn khác, sự độc đáo trong phong cách phục vụ của Belle Amour là khách sạn không nhận phục vụ những tour khách đông người, và không nhận thuê phòng theo giờ. Đây cũng là điều mà khách của &lt;strong&gt;Belle Amour&lt;/strong&gt; luôn đánh giá cao tại khách sạn này.&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-left:0px;text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;&lt;img style="height:auto;" alt="" srcset="https://homestay.review/wp-content/uploads/2018/12/Belle-Amour-Hotel-Đà-Lạt-3.jpg 1024w, https://homestay.review/wp-content/uploads/2018/12/Belle-Amour-Hotel-Đà-Lạt-3-300x212.jpg 300w, https://homestay.review/wp-content/uploads/2018/12/Belle-Amour-Hotel-Đà-Lạt-3-768x542.jpg 768w, https://homestay.review/wp-content/uploads/2018/12/Belle-Amour-Hotel-Đà-Lạt-3-100x70.jpg 100w, https://homestay.review/wp-content/uploads/2018/12/Belle-Amour-Hotel-Đà-Lạt-3-696x491.jpg 696w, https://homestay.review/wp-content/uploads/2018/12/Belle-Amour-Hotel-Đà-Lạt-3-595x420.jpg 595w" sizes="100vw" width="696" height="491"&gt;&lt;img style="height:auto;" alt="" srcset="https://homestay.review/wp-content/uploads/2018/12/Belle-Amour-Hotel-Đà-Lạt-6.jpg 1024w, https://homestay.review/wp-content/uploads/2018/12/Belle-Amour-Hotel-Đà-Lạt-6-300x199.jpg 300w, https://homestay.review/wp-content/uploads/2018/12/Belle-Amour-Hotel-Đà-Lạt-6-768x509.jpg 768w, https://homestay.review/wp-content/uploads/2018/12/Belle-Amour-Hotel-Đà-Lạt-6-696x462.jpg 696w, https://homestay.review/wp-content/uploads/2018/12/Belle-Amour-Hotel-Đà-Lạt-6-633x420.jpg 633w" sizes="100vw" width="696" height="462"&gt;&lt;img style="height:auto;" alt="" srcset="https://homestay.review/wp-content/uploads/2018/12/Belle-Amour-Hotel-Đà-Lạt-5.jpg 1024w, https://homestay.review/wp-content/uploads/2018/12/Belle-Amour-Hotel-Đà-Lạt-5-300x199.jpg 300w, https://homestay.review/wp-content/uploads/2018/12/Belle-Amour-Hotel-Đà-Lạt-5-768x509.jpg 768w, https://homestay.review/wp-content/uploads/2018/12/Belle-Amour-Hotel-Đà-Lạt-5-696x462.jpg 696w, https://homestay.review/wp-content/uploads/2018/12/Belle-Amour-Hotel-Đà-Lạt-5-633x420.jpg 633w" sizes="100vw" width="696" height="462"&gt;&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-left:0px;text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;Các phòng ngủ cho du khách được trang trí đơn giản mà sang trọng với đầy đủ tiện nghi nhà tắm, dịch vụ Internet, hay hệ thống cử khóa an toàn,… Sự chu đáo tại Belle Amour chắc chắn sẽ làm hài lòng bất cứ vị khách nào đặt chân đến đây.&lt;/span&gt;&lt;/p&gt;&lt;h3 style="text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;2. Dalat Lanani Hotel&lt;/span&gt;&lt;/h3&gt;&lt;p style="margin-left:0px;text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;Địa chỉ: 07 Phan Đình Phùng, thành phố Đà Lạt Việt Nam&lt;/span&gt;&lt;/p&gt;&lt;p style="text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;&lt;img style="height:auto;" src="https://homestay.review/wp-content/uploads/2018/12/Da-Lat-Lanani-Hotel.jpg" alt="" srcset="https://homestay.review/wp-content/uploads/2018/12/Da-Lat-Lanani-Hotel.jpg 576w, https://homestay.review/wp-content/uploads/2018/12/Da-Lat-Lanani-Hotel-225x300.jpg 225w, https://homestay.review/wp-content/uploads/2018/12/Da-Lat-Lanani-Hotel-315x420.jpg 315w" sizes="100vw" width="576" height="768"&gt;&lt;/span&gt;&lt;/p&gt;&lt;p style="text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;&lt;i&gt;Thiết kế sang trọng&lt;/i&gt;&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-left:0px;text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;Tọa lạc tại vị trí gần trung tâm thành phố, &lt;strong&gt;Dalat Lanani Hotel&lt;/strong&gt; là một nơi dừng chân cung cấp cho du khách với vị trí khá gần với khu chợ ẩm thực và một số địa danh nổi tiếng của thành phố Đà Lạt như khách sạn Hằng Nga, Dinh Bảo Đại,…&lt;/span&gt;&lt;/p&gt;&lt;p style="text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;&lt;img style="height:auto;" src="https://homestay.review/wp-content/uploads/2019/01/68209900.jpg" alt="" srcset="https://homestay.review/wp-content/uploads/2019/01/68209900.jpg 576w, https://homestay.review/wp-content/uploads/2019/01/68209900-225x300.jpg 225w" sizes="100vw" width="576" height="768"&gt;&lt;/span&gt;&lt;/p&gt;&lt;p style="text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;&lt;i&gt;Phòng ngủ lịch sự&lt;/i&gt;&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-left:0px;text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;Chủ &amp;nbsp;và nhân viên khách sạn ở đây khá thân thiện và thoải mái, bạn có thể nhờ họ giới thiệu những nơi ăn chơi nổi tiếng tại thành phố. Sự quan tâm và chăm sóc tận tình &amp;nbsp;của họ đối với khách trọ luôn là điều khiến du khách nhớ mãi và muốn quay lại khách sạn này một lần nữa.&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-left:0px;text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;Phòng ngủ được trang bị đầy đủ tiện nghi và thiết bị cho du khách và cả người khuyết tật. Việc sử dụng các tông màu trầm khiến cho căn phòng trở nên ấm cúng hơn trong mắt du khách.&lt;/span&gt;&lt;/p&gt;&lt;h3 style="text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;3. Gia Pham Hotel&lt;/span&gt;&lt;/h3&gt;&lt;p style="margin-left:0px;text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;Địa chỉ: G5b Mạc Đĩnh Chi, quận 4, thành phố Đà Lạt, Việt Nam&lt;/span&gt;&lt;/p&gt;&lt;p style="text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;&lt;img style="height:auto;" src="https://homestay.review/wp-content/uploads/2019/01/gia-pham-hotel-dalat-phong-ngu.jpg" alt="Gia Pham Hotel Đà Lạt phòng ngủ" srcset="https://homestay.review/wp-content/uploads/2019/01/gia-pham-hotel-dalat-phong-ngu.jpg 1280w, https://homestay.review/wp-content/uploads/2019/01/gia-pham-hotel-dalat-phong-ngu-300x200.jpg 300w, https://homestay.review/wp-content/uploads/2019/01/gia-pham-hotel-dalat-phong-ngu-768x512.jpg 768w, https://homestay.review/wp-content/uploads/2019/01/gia-pham-hotel-dalat-phong-ngu-1024x682.jpg 1024w, https://homestay.review/wp-content/uploads/2019/01/gia-pham-hotel-dalat-phong-ngu-696x464.jpg 696w, https://homestay.review/wp-content/uploads/2019/01/gia-pham-hotel-dalat-phong-ngu-1068x712.jpg 1068w, https://homestay.review/wp-content/uploads/2019/01/gia-pham-hotel-dalat-phong-ngu-630x420.jpg 630w" sizes="100vw" width="1280" height="853"&gt;&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-left:0px;text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;Chỉ với từ 180k một đêm, những gì du khách nhận được khi đến với Khách sạn Gia Phạm luôn vượt ngoài những gì mà họ mong đợi cho một nơi nghỉ dưỡng giá cả bình dân. Khách sạn có đầy đủ các dịch vụ về thuê phương tiện, đưa đón hay lên tour,…phục vụ cho việc ăn chơi của khách và những tiện nghi phục vụ trong khách sạn để mang đến cho du khách một không gian nghỉ dưỡng thoải mái nhất.&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-left:0px;text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;&lt;img style="height:auto;" src="https://homestay.review/wp-content/uploads/2019/01/gia-pham-da-lat.jpg" alt="" srcset="https://homestay.review/wp-content/uploads/2019/01/gia-pham-da-lat.jpg 1024w, https://homestay.review/wp-content/uploads/2019/01/gia-pham-da-lat-300x225.jpg 300w, https://homestay.review/wp-content/uploads/2019/01/gia-pham-da-lat-768x576.jpg 768w, https://homestay.review/wp-content/uploads/2019/01/gia-pham-da-lat-80x60.jpg 80w, https://homestay.review/wp-content/uploads/2019/01/gia-pham-da-lat-265x198.jpg 265w, https://homestay.review/wp-content/uploads/2019/01/gia-pham-da-lat-696x522.jpg 696w, https://homestay.review/wp-content/uploads/2019/01/gia-pham-da-lat-560x420.jpg 560w" sizes="100vw" width="1024" height="768"&gt;&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-left:0px;text-align:justify;"&gt;&lt;span style="color:hsl(0, 0%, 0%);font-family:Arial, Helvetica, sans-serif;"&gt;Các không gian trong Gia Phạm được thiết kế và trang trí một cách tối giản nhưng không đơn điệu, thiết kế của khách sạn vẫn có sự độc đáo riêng biệt. Một số phòng ngủ tại đây có bố trí ban công, du khách có thể ngắm nhìn thỏa thích vẻ đẹp của thành phố mọi lúc và nó cũng đủ rộng để khách có thể vừa dùng bữa vừa từ từ thưởng thức vẻ đẹp mơ mộng của thành phố này.&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>ban công,khách sạn Đà Lạt</t>
+  </si>
+  <si>
+    <t>gia-pham-hotel-dalat-phong-ngu.jpg</t>
+  </si>
+  <si>
+    <t>gia-pham-da-lat.jpg</t>
+  </si>
+  <si>
+    <t>Belle Amour Hotel</t>
+  </si>
+  <si>
+    <t>Dalat Lanani Hotel</t>
+  </si>
+  <si>
+    <t>Gia Phạm Hotel</t>
+  </si>
+  <si>
+    <t>G5b Mạc Đĩnh Chi, quận 4</t>
+  </si>
+  <si>
+    <t>07 Phan Đình Phùng</t>
+  </si>
+  <si>
+    <t>16A Phạm Ngũ Lão, quận 3</t>
   </si>
 </sst>
 </file>
@@ -540,10 +603,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -851,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -911,7 +974,7 @@
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -934,7 +997,7 @@
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -957,7 +1020,7 @@
       <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -980,7 +1043,7 @@
       <c r="F5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1003,7 +1066,7 @@
       <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1026,7 +1089,7 @@
       <c r="F7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1046,7 +1109,7 @@
       <c r="F8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1066,7 +1129,7 @@
       <c r="F9" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1086,7 +1149,7 @@
       <c r="F10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1109,7 +1172,7 @@
       <c r="F11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1129,8 +1192,54 @@
       <c r="F12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1139,6 +1248,7 @@
     <hyperlink ref="G3" r:id="rId2" xr:uid="{70D66D30-69AF-4611-BE88-526A8B1E470A}"/>
     <hyperlink ref="G9" r:id="rId3" xr:uid="{FE2E30C3-6B82-4EA5-AD4C-931364169BE3}"/>
     <hyperlink ref="G12" r:id="rId4" xr:uid="{F155756C-0789-456C-B394-A94B9E431B39}"/>
+    <hyperlink ref="G13" r:id="rId5" xr:uid="{3F9758B0-55B9-4C99-8C81-D31A850B1B66}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1146,10 +1256,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1567,6 +1677,61 @@
         <v>148</v>
       </c>
     </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1575,10 +1740,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1640,10 +1805,10 @@
       <c r="F2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>12000000</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>16000000</v>
       </c>
     </row>
@@ -1666,10 +1831,10 @@
       <c r="F3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>700000</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>770000</v>
       </c>
     </row>
@@ -1692,10 +1857,10 @@
       <c r="F4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>900000</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>1500000</v>
       </c>
     </row>
@@ -1718,10 +1883,10 @@
       <c r="F5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>1600000</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>2000000</v>
       </c>
     </row>
@@ -1744,10 +1909,10 @@
       <c r="F6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>2200000</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>3300000</v>
       </c>
     </row>
@@ -1770,10 +1935,10 @@
       <c r="F7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>1199000</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>1199000</v>
       </c>
     </row>
@@ -1796,10 +1961,10 @@
       <c r="F8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <v>900000</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>900000</v>
       </c>
     </row>
@@ -1822,10 +1987,10 @@
       <c r="F9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="5">
         <v>800000</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>4000000</v>
       </c>
     </row>
@@ -1848,10 +2013,10 @@
       <c r="F10" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="5">
         <v>1250000</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <v>5200000</v>
       </c>
     </row>
@@ -1874,10 +2039,10 @@
       <c r="F11" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="5">
         <v>600000</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="5">
         <v>600000</v>
       </c>
     </row>
@@ -1900,10 +2065,10 @@
       <c r="F12" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="5">
         <v>1850000</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <v>8050000</v>
       </c>
     </row>
@@ -1926,8 +2091,8 @@
       <c r="F13" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2">
@@ -1948,8 +2113,8 @@
       <c r="F14" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2">
@@ -1970,8 +2135,8 @@
       <c r="F15" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2">
@@ -1992,8 +2157,8 @@
       <c r="F16" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2">
@@ -2014,10 +2179,10 @@
       <c r="F17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="5">
         <v>3500000</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">
@@ -2038,10 +2203,10 @@
       <c r="F18" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="5">
         <v>615000</v>
       </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2">
@@ -2062,10 +2227,10 @@
       <c r="F19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="5">
         <v>4500000</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="5">
         <v>8500000</v>
       </c>
     </row>
@@ -2088,9 +2253,10 @@
       <c r="F20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="5">
         <v>460000</v>
       </c>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2">
@@ -2111,11 +2277,103 @@
       <c r="F21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="5">
         <v>1600000</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="5">
         <v>2050000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="5">
+        <v>600000</v>
+      </c>
+      <c r="H22" s="5">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="5">
+        <v>243902</v>
+      </c>
+      <c r="H25" s="5">
+        <v>268293</v>
       </c>
     </row>
   </sheetData>

--- a/database/data/reviews.xlsx
+++ b/database/data/reviews.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ReviewTravel\Group6_SE347.O11\database\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872961FC-5DBD-437A-9BC9-73147ABA8E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66584437-B114-4EE8-BF8C-CFF72753CD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bài viết" sheetId="1" r:id="rId1"/>
     <sheet name="Hình" sheetId="2" r:id="rId2"/>
-    <sheet name="Nơi review" sheetId="3" r:id="rId3"/>
+    <sheet name="Địa điểm review" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -60,9 +60,6 @@
     <t>Hình</t>
   </si>
   <si>
-    <t>Nơi</t>
-  </si>
-  <si>
     <t>Địa chỉ</t>
   </si>
   <si>
@@ -532,6 +529,9 @@
   </si>
   <si>
     <t>16A Phạm Ngũ Lão, quận 3</t>
+  </si>
+  <si>
+    <t>Địa điểm</t>
   </si>
 </sst>
 </file>
@@ -960,16 +960,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
@@ -983,16 +983,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -1006,16 +1006,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
@@ -1029,19 +1029,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>9</v>
@@ -1052,22 +1052,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="D6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1075,22 +1075,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1098,19 +1098,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="G8" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1118,16 +1118,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>8</v>
@@ -1138,19 +1138,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1158,22 +1158,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1181,13 +1181,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>7</v>
@@ -1201,16 +1201,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="D13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>7</v>
@@ -1224,22 +1224,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1286,10 +1286,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1297,10 +1297,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1308,10 +1308,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1319,10 +1319,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1330,10 +1330,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1341,10 +1341,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1352,10 +1352,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1363,10 +1363,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1374,10 +1374,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1385,10 +1385,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1396,10 +1396,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1407,10 +1407,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1418,10 +1418,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1429,10 +1429,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1440,10 +1440,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1451,10 +1451,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1462,10 +1462,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1473,10 +1473,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1484,10 +1484,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1495,10 +1495,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1506,10 +1506,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1517,10 +1517,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1528,10 +1528,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1539,10 +1539,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1550,10 +1550,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1561,10 +1561,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1572,10 +1572,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1583,10 +1583,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1594,10 +1594,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1605,10 +1605,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1616,10 +1616,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1627,10 +1627,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1638,10 +1638,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1649,10 +1649,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1660,10 +1660,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1671,10 +1671,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1682,10 +1682,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1693,10 +1693,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1704,10 +1704,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1715,10 +1715,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1726,10 +1726,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1743,7 +1743,7 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1768,22 +1768,22 @@
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1791,19 +1791,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G2" s="5">
         <v>12000000</v>
@@ -1817,19 +1817,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="G3" s="5">
         <v>700000</v>
@@ -1843,19 +1843,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="5">
         <v>900000</v>
@@ -1869,19 +1869,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="5">
         <v>1600000</v>
@@ -1895,19 +1895,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="5">
         <v>2200000</v>
@@ -1921,19 +1921,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="5">
         <v>1199000</v>
@@ -1947,19 +1947,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="5">
         <v>900000</v>
@@ -1973,19 +1973,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="G9" s="5">
         <v>800000</v>
@@ -1999,19 +1999,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G10" s="5">
         <v>1250000</v>
@@ -2025,19 +2025,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G11" s="5">
         <v>600000</v>
@@ -2051,19 +2051,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G12" s="5">
         <v>1850000</v>
@@ -2077,19 +2077,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -2099,19 +2099,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -2121,19 +2121,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -2143,19 +2143,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -2165,19 +2165,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="5">
         <v>3500000</v>
@@ -2189,19 +2189,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="G18" s="5">
         <v>615000</v>
@@ -2213,19 +2213,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" s="5">
         <v>4500000</v>
@@ -2239,19 +2239,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="G20" s="5">
         <v>460000</v>
@@ -2263,19 +2263,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" s="5">
         <v>1600000</v>
@@ -2289,19 +2289,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G22" s="5">
         <v>600000</v>
@@ -2315,19 +2315,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2335,19 +2335,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2355,19 +2355,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="E25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="G25" s="5">
         <v>243902</v>
